--- a/01-beginner/035-clear-formats.xlsx
+++ b/01-beginner/035-clear-formats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="37080" windowHeight="23303" tabRatio="675"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="37080" windowHeight="23303" tabRatio="675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Student Grades" sheetId="10" r:id="rId1"/>
@@ -473,7 +473,7 @@
   </sheetPr>
   <dimension ref="A3:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -900,423 +900,386 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A3:P17"/>
+  <dimension ref="A3:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.06640625" style="1" customWidth="1"/>
-    <col min="2" max="15" width="8.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="15.06640625" customWidth="1"/>
+    <col min="2" max="15" width="8.796875" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="90.4" x14ac:dyDescent="2.4500000000000002">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="67.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4">
         <v>42742</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4">
         <v>42749</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4">
         <v>42756</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4">
         <v>42763</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4">
         <v>42770</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>207.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>210</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>180</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>152.5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>195</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>264</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>282</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>315</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>630</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>82</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>64</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>65</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <v>73</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>87</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <f>(B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5)/$P$15</f>
         <v>0.75864864864864867</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>195</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>205</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>175</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>172.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>205</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>328</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>216</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>435</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>525</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>94</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>79</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>73</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <v>72</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>90</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <f>(B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6)/$P$15</f>
         <v>0.77418918918918922</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>202.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>217.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>250</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>195</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>237.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>340</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>261</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>315</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>742.5</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>78</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7">
         <v>100</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>96</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7">
         <v>75</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>95</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <f>(B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7)/$P$15</f>
         <v>0.86621621621621625</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>237.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>180</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>237.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>197.5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>242.5</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>240</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>279</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>375</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>585</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>91</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>70</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>61</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <v>87</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>85</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <f>(B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8)/$P$15</f>
         <v>0.80216216216216218</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:16" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <f t="shared" ref="B9:O9" si="0">((B5+B6+B7+B8)/4)/B15</f>
         <v>0.84250000000000003</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.84250000000000003</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>0.71750000000000003</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>0.73250000000000004</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.82750000000000001</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>0.86250000000000004</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>0.78249999999999997</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>0.73750000000000004</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>0.76749999999999996</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>0.89249999999999996</v>
       </c>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>250</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>250</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>250</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>250</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>400</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>300</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>500</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>750</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>100</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>100</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>100</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15">
         <v>100</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>100</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <f>B15+C15+D15+E15+F15+G15+H15+I15+J15+K15+L15+M15+N15+O15</f>
         <v>3700</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="16:16" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
